--- a/LW5/ЛР5 «Кейсы».xlsx
+++ b/LW5/ЛР5 «Кейсы».xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\source\repos\Labs\LW5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Наталия\source\repos\LabsTest\Labs\LW5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F90FC3-2E64-468E-9D6E-B791D5C63B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ABC2D1-2F4E-4680-8B26-0BAE066C307B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="0" windowWidth="26565" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Название кейса</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Проверка на чтение файла</t>
   </si>
   <si>
-    <t>1. Работа происходит с файлом data.txt</t>
-  </si>
-  <si>
     <t>2. Файл data.txt существует</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>5. Значения из файла были успешно считаны</t>
   </si>
   <si>
-    <t xml:space="preserve">  1. Работа происходит с файлом data.txt</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -67,24 +61,6 @@
   </si>
   <si>
     <t>Ожидаемый результат</t>
-  </si>
-  <si>
-    <t>Программа успешно выдала правильные корни для заданных значений</t>
-  </si>
-  <si>
-    <t>2. Удалить файл</t>
-  </si>
-  <si>
-    <t>1. Проверить, смогла ли программа обнаружить</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   3. Переместить файл</t>
-  </si>
-  <si>
-    <t>Программа выдаёт ошибку в конколь, FileNotFound.</t>
-  </si>
-  <si>
-    <t>Программа вывела содержимое файла либо ошибку, отличную от FileNotFound</t>
   </si>
   <si>
     <t>1. Подставить значения, ожидаемые программой.
@@ -101,9 +77,6 @@
     <t>Данные записались в переменные, их значения вывелись в консоль.</t>
   </si>
   <si>
-    <t>В консоль выведиться ошибка NotANumberException</t>
-  </si>
-  <si>
     <t>2. Проверить, вылетела ли программа на заведомо неверных значениях (любые отклонения от заданного в пункте 1 формата, например, буквы вместо чисел)</t>
   </si>
   <si>
@@ -116,13 +89,46 @@
     <t>2. Ввести значения, при которых дискриминант равен нулю</t>
   </si>
   <si>
-    <t>Программа вывели в консоль исключение DiscriminantZero</t>
-  </si>
-  <si>
     <t>3. Ввести значения, при которых дискриминант меньше нуля</t>
   </si>
   <si>
-    <t>Программа вывели в консоль исключение DiscriminantLessZeroException</t>
+    <t>Файл находится по ссылке data.txt по отношению .exe файлу программы</t>
+  </si>
+  <si>
+    <t>Файл отсутсвует по заданному в пункте 1 пути</t>
+  </si>
+  <si>
+    <t>Проверка теста на выдачу ошибки</t>
+  </si>
+  <si>
+    <t>Проверить, смогла ли программа обнаружить</t>
+  </si>
+  <si>
+    <t>Проверка выдачу ошибки</t>
+  </si>
+  <si>
+    <t>Тест успешно выдал правильные корни для заданных значений</t>
+  </si>
+  <si>
+    <t>Тест вывел в консоль исключение DiscriminantZero</t>
+  </si>
+  <si>
+    <t>Тест вывел в консоль исключение DiscriminantLessZeroException</t>
+  </si>
+  <si>
+    <t>1. Работа происходит с файлом data.txt, находящий по пути из 1-го кейса</t>
+  </si>
+  <si>
+    <t>3. Тест может проверить наличие нужного ей файла - data.txt</t>
+  </si>
+  <si>
+    <t>Тест получил ошибку NotANumberException</t>
+  </si>
+  <si>
+    <t>Тест вывел содержимое файла</t>
+  </si>
+  <si>
+    <t>Тест выдаёт ошибку в конколь, FileNotFound.</t>
   </si>
 </sst>
 </file>
@@ -161,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -309,11 +315,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -325,12 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -338,17 +364,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -357,13 +374,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -644,200 +690,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="50.140625" customWidth="1"/>
-    <col min="3" max="3" width="72.85546875" customWidth="1"/>
-    <col min="4" max="4" width="73.28515625" customWidth="1"/>
-    <col min="5" max="5" width="70.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" customWidth="1"/>
+    <col min="3" max="3" width="72.88671875" customWidth="1"/>
+    <col min="4" max="4" width="73.33203125" customWidth="1"/>
+    <col min="5" max="5" width="74.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E4" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="E10" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B14"/>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
